--- a/Photoswitches SI/fulldata.logt12_test.xlsx
+++ b/Photoswitches SI/fulldata.logt12_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,16 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>E (J)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>E (eV)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>mol</t>
         </is>
       </c>
@@ -496,7 +506,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>6.023636363636364e-19</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.759658102488819</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>c1(Cl)cccc(Cl)c1N=Nc1c(Cl)cc(cc1Cl)OC</t>
         </is>
@@ -528,7 +544,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>6.060365853658537e-19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.78258284701619</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>C1CN(CCO1)c1ccccc1N=Nc1c(C)n(nc1C)C</t>
         </is>
@@ -560,7 +582,13 @@
           <t>toluene</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>6.173291925465839e-19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.853065757209039</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1cnccc1</t>
         </is>
@@ -592,7 +620,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>5.537047353760446e-19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.455953130421477</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1sccc1</t>
         </is>
@@ -624,7 +658,13 @@
           <t>water</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>5.203664921465969e-19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.247872182778299</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>c1cc(ccc1NC(NCCSS(=O)(=O)C)=O)N=Nc1ccc(cc1)NC(NCCSS(=O)(=O)C)=O</t>
         </is>
@@ -656,7 +696,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>6.290506329113924e-19</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.926225233611742</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>c1(F)cccc(F)c1N=Nc1ccc(cc1)C(=O)OCC</t>
         </is>
@@ -688,7 +734,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>6.290506329113924e-19</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.926225233611742</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>C1CN(CCC1)c1c(N=Nc2c(C)onc2C)cccc1</t>
         </is>
@@ -720,7 +772,13 @@
           <t>water</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>5.431147540983607e-19</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.389855666178443</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>O=S(=O)(CC(=O)Nc1ccc(cc1)N=Nc1ccc(cc1)NC(CS(=O)(=O)C)=O)C</t>
         </is>
@@ -752,7 +810,13 @@
           <t>toluene</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>5.987349397590362e-19</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.737009559702742</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1cnccc1OC</t>
         </is>
@@ -784,7 +848,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>5.357951482479785e-19</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.344170279841807</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>c1cc(ccc1C#N)N=Nc1sccc1</t>
         </is>
@@ -816,7 +886,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>6.412258064516129e-19</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.002216689746162</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>c1(Cl)cc(cc(Cl)c1N=Nc1c(Cl)cccc1Cl)[N+](=O)[O-]</t>
         </is>
@@ -848,7 +924,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>5.778488372093024e-19</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.606648761108461</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>C1CCN(C1)c1c(N=Nc2ccc(OC)cc2F)ccc(OC)c1</t>
         </is>
@@ -880,7 +962,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>5.149740932642488e-19</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.214215476221012</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>c1cc(ccc1C#N)N=Nc1sc(C)cc1</t>
         </is>
@@ -912,7 +1000,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>4.107024793388431e-19</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.563403251696923</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1nccs1)N(C)C</t>
         </is>
